--- a/biology/Zoologie/Coniophanes_imperialis/Coniophanes_imperialis.xlsx
+++ b/biology/Zoologie/Coniophanes_imperialis/Coniophanes_imperialis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coniophanes imperialis est une espèce de serpents de la famille des Dipsadidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coniophanes imperialis est une espèce de serpents de la famille des Dipsadidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans le sud du Texas aux États-Unis, au Mexique, au Belize, au Guatemala et au Honduras[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans le sud du Texas aux États-Unis, au Mexique, au Belize, au Guatemala et au Honduras.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (2 mars 2012)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (2 mars 2012) :
 Coniophanes imperialis imperialis (Baird, 1859)
 Coniophanes imperialis clavatus (Peters, 1864)
 Coniophanes imperialis copei Hartweg &amp; Oliver, 1938</t>
@@ -575,7 +591,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Baird, 1859 : Reptiles of the boundary, with notes by the naturalists of the survey, In Report of the United States and Mexican Boundary Survey, Under the Order of Lieut. Col. W.H. Emory, Major First Cavalry, and United States Commissioner, vol. 2, no 2, Department of the Interior, Washington, D.C., p. 1-35.
 Peters, 1864 : Über einige neue Säugethiere (Mormops, Macrotus, Vesperus, Molossus, Capromys), Amphibien (Plathydactylus, Otocryptis, Euprepes, Ungalia, Dromicus, Tropidonotus, Xenodon, Hylodes), und Fische (Sillago, Sebastes, Channa, Myctophum, Carassius, Barbus, Capoeta, Poecillia, Saurenchelys, Leptocephalus). Monatsberichte der Königlichen Preussischen Akademie der Wissenschaften zu Berlin, vol. 1864, p. 381-399 (texte intégral).
